--- a/doc/Score summary20210307.xlsx
+++ b/doc/Score summary20210307.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UW\directproject\dev\dummydata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UW\directproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB635D2B-4FEC-4860-9F01-10E75098E29C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E6048C-2781-47A7-AEF8-C4863259439E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -1675,7 +1675,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.9"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7004,20 +7004,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7066,20 +7052,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7392,20 +7364,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7454,20 +7412,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15055,15 +14999,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15091,16 +15035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15547,8 +15491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16506,7 +16450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3479E86A-85FA-4496-BE21-2F8C57CDB9CC}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -16516,7 +16460,7 @@
     <col min="3" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -17010,7 +16954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C21" s="4" t="s">
         <v>0</v>
       </c>
@@ -17433,8 +17377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35BC272-F1DE-4D4E-8FFF-F3C1F2832E6A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17444,7 +17388,7 @@
     <col min="3" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>114</v>
       </c>
@@ -17468,7 +17412,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
@@ -17494,7 +17438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
@@ -17572,7 +17516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
@@ -17598,7 +17542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -17624,7 +17568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>55</v>
       </c>
@@ -17650,7 +17594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -17676,7 +17620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>57</v>
       </c>
@@ -17702,7 +17646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -17728,7 +17672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>59</v>
       </c>
@@ -17754,7 +17698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
@@ -17780,7 +17724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>61</v>
       </c>
@@ -17806,7 +17750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -17832,7 +17776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>63</v>
       </c>
@@ -17870,7 +17814,7 @@
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/Score summary20210307.xlsx
+++ b/doc/Score summary20210307.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UW\directproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E6048C-2781-47A7-AEF8-C4863259439E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4752F94B-2247-4393-8B75-7AAFAFEA8FD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="518" sheetId="7" r:id="rId3"/>
     <sheet name="raw1114" sheetId="3" r:id="rId4"/>
     <sheet name="1000" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="139">
   <si>
     <t>Simple score</t>
   </si>
@@ -379,6 +380,103 @@
     <t>%SR518</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rawdata preprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data curation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QC-based batch correction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalization, imputation, scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature annotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interactive visualization (Chromatogram, spectrum)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TidyMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZmine2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XCMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-DIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass-suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality reports (PCA plots, rough estimation of samples)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clustering statistical analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isotope grouping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profinder/MPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                          Tool
+Features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -451,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -459,11 +557,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -493,6 +600,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17377,7 +17493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35BC272-F1DE-4D4E-8FFF-F3C1F2832E6A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -20899,4 +21015,294 @@
   <pageSetup paperSize="147" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249DFA3C-FAB0-471E-8D52-BC9E8D3C10C2}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="147" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>